--- a/Phase2-3/Software Development Schedule.xlsx
+++ b/Phase2-3/Software Development Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Materials, Traps, Weapons, Minor Objectives will probably have definitive start and end tasks. Player and AI classes will probably be continuously updated to integrate the other objects.</t>
   </si>
@@ -34,197 +34,79 @@
     <t>Set up an Unreal Engine project with source control</t>
   </si>
   <si>
-    <t>Everyone</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Mapping</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>: Develop a bird's eye view for a map layout that makes sense with our game. Include locations for spawning, materials, minor objectives, and weapon crafting</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Player</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>: Create simple Player Pawn and Player Controller. Attach PlayerController to PlayerPawn.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>: Create simple AI Pawn and AI Controller.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Game Mode</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">: Create simple Game Mode. If AI Pawn is dead or Player lives = 0, end game. </t>
-    </r>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Created and initialized UE project. Pushed to GitHub</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Pulled project, added sphere to project. Pushed to GitHub.</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Pulled project, modified C++ files. Pushed to GitHub.</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Pulled project, added pillars to project. Pushed to GitHub.</t>
+  </si>
+  <si>
+    <t>Make a bird's eye view of the level.</t>
   </si>
   <si>
     <t>1/31 - 2/7</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Mapping</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>: Start building the level according to the bird's eye view. Expand the ground, add walls to mimic the design.</t>
-    </r>
-  </si>
-  <si>
-    <t>Player: Create data structure for Materials</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Learn about designing AI in UE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Material</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>: Start Material</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Player</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>: Add data structure for Materials.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Game Mode</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>: Add data structure for Materials.</t>
-    </r>
+    <t>Start building the level according to the bird's eye view.</t>
+  </si>
+  <si>
+    <t>Game demonstration.</t>
+  </si>
+  <si>
+    <t>Add skeletal mesh to player pawn.</t>
+  </si>
+  <si>
+    <t>Screenshot of skeletal mesh attached to player pawn.</t>
+  </si>
+  <si>
+    <t>Make player pawn move around and jump.</t>
+  </si>
+  <si>
+    <t>Create a material actor. Allow player to interact w/ material.</t>
+  </si>
+  <si>
+    <t>Create AI pawn. Have it follow player.</t>
   </si>
   <si>
     <t>2/7 - 2/14</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Mapping</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>: Add light sources to the level. Find a free texture asset and apply textures to ground and walls.</t>
-    </r>
-  </si>
-  <si>
-    <t>Create AI behavior tree.</t>
+    <t>Create more variety of materials. Create material set for game.</t>
+  </si>
+  <si>
+    <t>Screenshot or code</t>
+  </si>
+  <si>
+    <t>Add functionality to check if material is brought to a specific location.</t>
+  </si>
+  <si>
+    <t>Game demonstration</t>
+  </si>
+  <si>
+    <t>Have AI scout prioritize locations with materials.</t>
+  </si>
+  <si>
+    <t>Add details, lighting, etc. to map.</t>
   </si>
   <si>
     <t>2/14 - 2/21</t>
-  </si>
-  <si>
-    <t>Mapping: Add details, create interactable envrionments (open/close door), add ambient sounds, etc.</t>
   </si>
   <si>
     <t>Finish Material, Start Minor Objective</t>
@@ -290,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -305,17 +187,19 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -329,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -349,14 +233,27 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -576,7 +473,7 @@
     <col customWidth="1" min="1" max="1" width="16.0"/>
     <col customWidth="1" min="2" max="2" width="66.57"/>
     <col customWidth="1" min="3" max="3" width="44.0"/>
-    <col customWidth="1" min="4" max="4" width="33.14"/>
+    <col customWidth="1" min="4" max="4" width="52.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,7 +502,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -614,211 +511,319 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
-      <c r="B14" s="8" t="s">
-        <v>16</v>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
-      <c r="B16" s="8" t="s">
-        <v>18</v>
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B21" s="11"/>
     </row>
     <row r="22">
       <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="10"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="10"/>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="10"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B13"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Phase2-3/Software Development Schedule.xlsx
+++ b/Phase2-3/Software Development Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Materials, Traps, Weapons, Minor Objectives will probably have definitive start and end tasks. Player and AI classes will probably be continuously updated to integrate the other objects.</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Game demonstration.</t>
   </si>
   <si>
-    <t>Add skeletal mesh to player pawn.</t>
+    <t>Add skeletal mesh to player pawn; update project defaults to select game mode and pawn.</t>
   </si>
   <si>
     <t>Screenshot of skeletal mesh attached to player pawn.</t>
@@ -586,6 +586,9 @@
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
@@ -599,6 +602,9 @@
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
@@ -611,6 +617,9 @@
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>18</v>

--- a/Phase2-3/Software Development Schedule.xlsx
+++ b/Phase2-3/Software Development Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Materials, Traps, Weapons, Minor Objectives will probably have definitive start and end tasks. Player and AI classes will probably be continuously updated to integrate the other objects.</t>
   </si>
@@ -67,49 +67,73 @@
     <t>Start building the level according to the bird's eye view.</t>
   </si>
   <si>
+    <t>Game demonstration of sculpted landscape.</t>
+  </si>
+  <si>
+    <t>Present bird's-eye view diagram of level.</t>
+  </si>
+  <si>
+    <t>Add skeletal mesh to player pawn; update project defaults to select game mode and pawn.</t>
+  </si>
+  <si>
+    <t>Screenshot of skeletal mesh attached to player pawn.</t>
+  </si>
+  <si>
+    <t>Make player pawn move around and jump.</t>
+  </si>
+  <si>
     <t>Game demonstration.</t>
   </si>
   <si>
-    <t>Add skeletal mesh to player pawn; update project defaults to select game mode and pawn.</t>
-  </si>
-  <si>
-    <t>Screenshot of skeletal mesh attached to player pawn.</t>
-  </si>
-  <si>
-    <t>Make player pawn move around and jump.</t>
-  </si>
-  <si>
-    <t>Create a material actor. Allow player to interact w/ material.</t>
-  </si>
-  <si>
     <t>Create AI pawn. Have it follow player.</t>
   </si>
   <si>
     <t>2/7 - 2/14</t>
   </si>
   <si>
-    <t>Create more variety of materials. Create material set for game.</t>
-  </si>
-  <si>
-    <t>Screenshot or code</t>
-  </si>
-  <si>
-    <t>Add functionality to check if material is brought to a specific location.</t>
+    <t>Create a Material, have player be able to walk over and interact with it</t>
+  </si>
+  <si>
+    <t>Output log when walking over</t>
+  </si>
+  <si>
+    <t>Implement basic AI Behavior Tree</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Animate Player and AI models</t>
   </si>
   <si>
     <t>Game demonstration</t>
   </si>
   <si>
-    <t>Have AI scout prioritize locations with materials.</t>
-  </si>
-  <si>
     <t>Add details, lighting, etc. to map.</t>
   </si>
   <si>
+    <t xml:space="preserve">Present screenshot of UE bird's-eye view of the map </t>
+  </si>
+  <si>
+    <t>(to showcase area divisions). Also game demonstration.</t>
+  </si>
+  <si>
     <t>2/14 - 2/21</t>
   </si>
   <si>
-    <t>Finish Material, Start Minor Objective</t>
+    <t>Expand AI Behavior Tree to scout for material locations</t>
+  </si>
+  <si>
+    <t>Implement a check for materials when player is in crafting location, allow materials to respawn if "dropped"</t>
+  </si>
+  <si>
+    <t>Start minor objectives</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Add details, lighting, etc. to map</t>
   </si>
   <si>
     <t>2/21 - 2/28</t>
@@ -470,9 +494,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="2" width="66.57"/>
-    <col customWidth="1" min="3" max="3" width="44.0"/>
+    <col customWidth="1" min="1" max="1" width="10.57"/>
+    <col customWidth="1" min="2" max="2" width="44.86"/>
+    <col customWidth="1" min="3" max="3" width="12.43"/>
     <col customWidth="1" min="4" max="4" width="52.29"/>
   </cols>
   <sheetData>
@@ -596,17 +620,20 @@
     <row r="15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -616,13 +643,13 @@
     <row r="18">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -632,104 +659,108 @@
     <row r="20">
       <c r="A20" s="4"/>
       <c r="B20" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="10"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="D26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32">
-      <c r="A32" s="7"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="10"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
@@ -738,95 +769,134 @@
     <row r="35">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="10"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="10"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="10"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B40" s="10"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="10"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="10"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="10"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="10"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="10"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" s="10"/>
     </row>
     <row r="48">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="10"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" s="10"/>
     </row>
     <row r="50">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Phase2-3/Software Development Schedule.xlsx
+++ b/Phase2-3/Software Development Schedule.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
-  <si>
-    <t>Materials, Traps, Weapons, Minor Objectives will probably have definitive start and end tasks. Player and AI classes will probably be continuously updated to integrate the other objects.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Week</t>
   </si>
@@ -133,7 +130,10 @@
     <t>Anthony</t>
   </si>
   <si>
-    <t>Add details, lighting, etc. to map</t>
+    <t>Finish(?) developing the map. Flesh out zones</t>
+  </si>
+  <si>
+    <t>more, edit skybox, lighting, etc.</t>
   </si>
   <si>
     <t>2/21 - 2/28</t>
@@ -152,6 +152,36 @@
   </si>
   <si>
     <t>3/14 - 3/21</t>
+  </si>
+  <si>
+    <t>Finish Melee Weapons</t>
+  </si>
+  <si>
+    <t>In game demonstration</t>
+  </si>
+  <si>
+    <t>Add minion variety w/ melee/projectiles</t>
+  </si>
+  <si>
+    <t>Add boss variety</t>
+  </si>
+  <si>
+    <t>Create Super Weapon that defeats Boss</t>
+  </si>
+  <si>
+    <t>Implement ammo on weapons</t>
+  </si>
+  <si>
+    <t>Create skills for AI- add to Behavior Tree</t>
+  </si>
+  <si>
+    <t>Screenshot and in-game demonstration</t>
+  </si>
+  <si>
+    <t>Finish Maze Zone / Start new zone</t>
+  </si>
+  <si>
+    <t>Finish "Temple" Zone / Start new zone</t>
   </si>
   <si>
     <t>3/21 - 3/28</t>
@@ -244,10 +274,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -501,349 +531,349 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="4"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
-      <c r="B18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" s="6" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="C32" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="B37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41">
-      <c r="A41" s="7"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="A41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="10"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="10"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="10"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="10"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
@@ -852,51 +882,188 @@
       <c r="B48" s="10"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="C49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4"/>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="10"/>
-    </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="10"/>
+      <c r="C53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4"/>
-      <c r="B54" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="10"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4"/>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="10"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
